--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA05BA-88F6-41DC-88B9-7A7176796020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C8819-B152-40EF-A7D3-E7F07D0672C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21510" yWindow="1815" windowWidth="17280" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30705" yWindow="1035" windowWidth="28470" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>JAN</t>
     <phoneticPr fontId="1"/>
@@ -79,13 +79,6 @@
     <t>日</t>
   </si>
   <si>
-    <t>毎日</t>
-    <rPh sb="0" eb="2">
-      <t>マイニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>012345678901</t>
   </si>
   <si>
@@ -144,75 +137,6 @@
   </si>
   <si>
     <t>012345678920</t>
-  </si>
-  <si>
-    <t>月水金日</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>スイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>火木土</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>モク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月火水</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木金土</t>
-    <rPh sb="0" eb="1">
-      <t>モク</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発注数</t>
-    <rPh sb="0" eb="3">
-      <t>ハッチュウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発希望注数</t>
@@ -231,23 +155,272 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発注可能日</t>
-    <rPh sb="0" eb="2">
-      <t>ハッチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品名</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世代</t>
+    <rPh sb="0" eb="2">
+      <t>セダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算試行回数</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jancode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注希望数(曜日)</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不足時の減衰(固定値)</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンスイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過剰時の減衰(固定値)</t>
+    <rPh sb="0" eb="2">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンスイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品優先度</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1世代のデータ数</t>
+    <rPh sb="1" eb="3">
+      <t>セダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１世代でどれだけデータ数を保持しておくか？</t>
+    <rPh sb="1" eb="3">
+      <t>セダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交差確率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突然変異確率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算パラメータ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度の評価①</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度の評価②</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2個目以降の減衰(固定値)</t>
+    <rPh sb="1" eb="3">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンスイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度の評価③</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>param-sub1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>param-sub2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -280,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +469,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,81 +512,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -690,233 +829,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
+    <row r="1" spans="1:17" ht="16.8" hidden="1" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="9">
-        <f>SUM(E4:E23)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="9">
-        <f t="shared" ref="F2:K2" si="0">SUM(F4:F23)</f>
-        <v>2</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUM(E5:E24)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:K3" si="0">SUM(F5:F24)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H3" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I3" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K3" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="L3" s="7">
+        <f>SUM(E3:K3)</f>
+        <v>29</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="4">
         <v>10</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="4">
         <v>10</v>
       </c>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="L4" s="4">
+        <f>SUM(E4:K4)</f>
+        <v>70</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="10">
+        <v>300</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUM(E5:K5)</f>
+        <v>7</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <f>SUM(E4:K4)</f>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="N6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" ref="L5:L23" si="1">SUM(E5:K5)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
         <v>7</v>
       </c>
       <c r="E7" s="3"/>
@@ -930,20 +1122,27 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="10">
+        <v>100</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
         <v>7</v>
       </c>
       <c r="E8" s="3"/>
@@ -957,20 +1156,18 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
         <v>7</v>
       </c>
       <c r="E9" s="3"/>
@@ -984,20 +1181,30 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="3"/>
@@ -1011,20 +1218,30 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="3"/>
@@ -1038,20 +1255,18 @@
       <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4">
         <v>7</v>
       </c>
       <c r="E12" s="3"/>
@@ -1065,46 +1280,68 @@
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
+        <v>7</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="9">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4">
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1112,21 +1349,21 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
@@ -1136,20 +1373,27 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
@@ -1159,21 +1403,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="9">
+        <v>100</v>
+      </c>
+      <c r="P16" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1182,20 +1433,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3"/>
@@ -1205,21 +1454,19 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
+        <v>1</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1228,21 +1475,19 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4">
+        <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1251,20 +1496,18 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21" s="3"/>
@@ -1274,21 +1517,19 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4">
+        <v>3</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1297,21 +1538,19 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5">
-        <v>4</v>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4">
+        <v>1</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1320,56 +1559,37 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:E1048576 F2:K3">
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>IF(COUNTIF($C1,"*月*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:K1048576">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>IF($C1="毎日", TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>IF(COUNTIF($C1,"*火*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>IF(COUNTIF($C1,"*水*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>IF(COUNTIF($C1,"*木*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:K3">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(COUNTIF($C3,"*水*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>IF(COUNTIF($C1,"*金*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>IF(COUNTIF($C1,"*土*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>IF(LEN($C1) = (COUNTIF($C1,"*日*")+COUNTIF($C1,"*月*")+COUNTIF($C1,"*火*")+COUNTIF($C1,"*水*")+COUNTIF($C1,"*木*")+COUNTIF($C1,"*金*")+COUNTIF($C1,"*土*")), COUNTIF($C1,"*日*"), FALSE)</formula>
+  <conditionalFormatting sqref="H4:K4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(COUNTIF($C4,"*水*"), TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C8819-B152-40EF-A7D3-E7F07D0672C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2258A833-46E8-4FDA-9227-9AFA37BBFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="1035" windowWidth="28470" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>JAN</t>
     <phoneticPr fontId="1"/>
@@ -274,44 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不足時の減衰(固定値)</t>
-    <rPh sb="0" eb="2">
-      <t>フソク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゲンスイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過剰時の減衰(固定値)</t>
-    <rPh sb="0" eb="2">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゲンスイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品優先度</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -390,22 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2個目以降の減衰(固定値)</t>
-    <rPh sb="1" eb="3">
-      <t>コメ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンスイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>コテイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重要度の評価③</t>
     <rPh sb="0" eb="3">
       <t>ジュウヨウド</t>
@@ -421,6 +367,165 @@
   </si>
   <si>
     <t>param-sub2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の種類数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュルイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の連続数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要度の評価④</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過剰時の減点(固定値)</t>
+    <rPh sb="0" eb="2">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2個目以降の優先度減点(固定値)</t>
+    <rPh sb="1" eb="3">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過剰時の優先度減点(固定値)</t>
+    <rPh sb="0" eb="2">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何世代計算するか？</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不足時の減点(固定値)</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 減点方式ならマイナス値、加点方式ならプラス値、数字の大きさが全体での重さになる</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オモ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -524,17 +629,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -841,13 +943,15 @@
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.296875" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="10.296875" customWidth="1"/>
+    <col min="18" max="18" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.8" hidden="1" customHeight="1">
+    <row r="1" spans="1:19" ht="16.8" hidden="1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -884,17 +988,17 @@
       <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5"/>
@@ -924,7 +1028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -933,41 +1037,41 @@
       </c>
       <c r="E3" s="7">
         <f>SUM(E5:E24)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" ref="F3:K3" si="0">SUM(F5:F24)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L3" s="7">
         <f>SUM(E3:K3)</f>
-        <v>29</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>103</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1005,20 +1109,20 @@
         <f>SUM(E4:K4)</f>
         <v>70</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>300</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="10">
-        <v>300</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1052,15 +1156,23 @@
         <f>SUM(E5:K5)</f>
         <v>7</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="12">
+      <c r="M5" t="str">
+        <f>_xlfn.CONCAT("d",E5,F5,G5,H5,I5,J5,K5)</f>
+        <v>d1111111</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xlfn.CONCAT("D",K5,E5,F5,G5,H5,I5,J5)</f>
+        <v>D1111111</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="11">
         <v>0.6</v>
       </c>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1092,17 +1204,25 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
-        <v>7</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="12">
+        <v>6</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M24" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
+        <v>d0111111</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N24" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
+        <v>D1011111</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="11">
         <v>0.5</v>
       </c>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1111,11 +1231,21 @@
       <c r="D7" s="4">
         <v>7</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
@@ -1124,19 +1254,30 @@
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>d1011111</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>D1101111</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="10">
-        <v>100</v>
-      </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="9">
+        <v>40</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1145,11 +1286,21 @@
       <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
@@ -1158,10 +1309,18 @@
       </c>
       <c r="L8" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>6</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>d1101111</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>D1110111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1170,11 +1329,21 @@
       <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
@@ -1183,22 +1352,30 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>d1110111</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>D1111011</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1207,11 +1384,21 @@
       <c r="D10" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
@@ -1220,22 +1407,30 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>d1111011</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>D1111101</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="9">
-        <v>10000</v>
-      </c>
-      <c r="P10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10" s="13">
+        <v>-10000</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1244,23 +1439,44 @@
       <c r="D11" s="4">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>d1111101</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>D1111110</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1269,35 +1485,53 @@
       <c r="D12" s="4">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>d1111110</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>D0111111</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1306,11 +1540,21 @@
       <c r="D13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
@@ -1319,22 +1563,30 @@
       </c>
       <c r="L13" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="9">
+        <v>5</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>d0011111</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>D1001111</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="13">
         <v>100</v>
       </c>
-      <c r="P13" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1343,21 +1595,41 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
       <c r="K14" s="3">
         <v>1</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>d1001111</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>D1100111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1366,28 +1638,49 @@
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
       <c r="L15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>d1100111</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>D1110011</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1396,28 +1689,49 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
       <c r="L16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="9">
-        <v>100</v>
-      </c>
-      <c r="P16" s="5">
+        <v>5</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>d1110011</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>D1111001</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1426,19 +1740,41 @@
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
       <c r="L17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>d1111001</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>D1111100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1447,19 +1783,49 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
       <c r="L18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>d1111100</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>D0111110</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1468,19 +1834,49 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
       <c r="L19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>d0001111</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>D1000111</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1489,19 +1885,41 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
       <c r="L20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>d1000111</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>D1100011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1510,19 +1928,41 @@
       <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
       <c r="L21" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>d1100011</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>D1110001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1531,19 +1971,41 @@
       <c r="D22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
       <c r="L22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>d1110001</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>D1111000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1552,19 +2014,41 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
       <c r="L23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>d1111000</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>D0111100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1573,16 +2057,38 @@
       <c r="D24" s="4">
         <v>4</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
       <c r="L24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>d1010101</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>D1101010</v>
       </c>
     </row>
   </sheetData>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2258A833-46E8-4FDA-9227-9AFA37BBFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1D624-DC18-4F25-875C-03E1C9F86DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="1785" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>JAN</t>
     <phoneticPr fontId="1"/>
@@ -525,6 +525,38 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注数が7以下なら 連続しないようにしたい</t>
+    <rPh sb="0" eb="3">
+      <t>ハッチュウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderptn1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderptn2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012345678921</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -617,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -627,7 +659,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -638,6 +669,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -931,27 +967,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" customWidth="1"/>
-    <col min="13" max="13" width="11.296875" customWidth="1"/>
-    <col min="14" max="14" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="9.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="10.296875" customWidth="1"/>
-    <col min="18" max="18" width="28.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.8" hidden="1" customHeight="1">
+    <row r="1" spans="1:19" ht="18" hidden="1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -988,6 +1024,12 @@
       <c r="L1" t="s">
         <v>45</v>
       </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
       <c r="Q1" t="s">
         <v>47</v>
       </c>
@@ -999,10 +1041,10 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1029,53 +1071,29 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7">
-        <f>SUM(E5:E24)</f>
-        <v>17</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:K3" si="0">SUM(F5:F24)</f>
-        <v>14</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L3" s="7">
-        <f>SUM(E3:K3)</f>
-        <v>103</v>
-      </c>
+      <c r="A3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="P3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1084,38 +1102,38 @@
       <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="8">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="8">
         <v>10</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="8">
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="8">
         <v>10</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="8">
         <v>10</v>
       </c>
       <c r="L4" s="4">
         <f>SUM(E4:K4)</f>
         <v>70</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>300</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="S4" t="s">
@@ -1127,8 +1145,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="8">
         <v>7</v>
       </c>
       <c r="E5" s="3">
@@ -1152,33 +1172,35 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <f>SUM(E5:K5)</f>
         <v>7</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="14" t="str">
         <f>_xlfn.CONCAT("d",E5,F5,G5,H5,I5,J5,K5)</f>
         <v>d1111111</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5" s="14" t="str">
         <f>_xlfn.CONCAT("D",K5,E5,F5,G5,H5,I5,J5)</f>
         <v>D1111111</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>0.6</v>
       </c>
-      <c r="R5" s="10"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
         <v>7</v>
       </c>
       <c r="E6" s="3">
@@ -1202,33 +1224,35 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="7">
-        <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
+      <c r="L6" s="4">
+        <f t="shared" ref="L6:L24" si="0">SUM(E6:K6)</f>
         <v>6</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" ref="M6:M24" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
+      <c r="M6" s="14" t="str">
+        <f t="shared" ref="M6:M24" si="1">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
         <v>d0111111</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" ref="N6:N24" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
+      <c r="N6" s="14" t="str">
+        <f t="shared" ref="N6:N24" si="2">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
         <v>D1011111</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>0.5</v>
       </c>
-      <c r="R6" s="10"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8">
         <v>7</v>
       </c>
       <c r="E7" s="3">
@@ -1252,25 +1276,25 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M7" t="str">
+        <v>d1011111</v>
+      </c>
+      <c r="N7" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1011111</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="3"/>
         <v>D1101111</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>40</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S7" t="s">
@@ -1282,8 +1306,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8">
         <v>7</v>
       </c>
       <c r="E8" s="3">
@@ -1307,16 +1333,16 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M8" t="str">
+        <v>d1101111</v>
+      </c>
+      <c r="N8" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1101111</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="3"/>
         <v>D1110111</v>
       </c>
     </row>
@@ -1325,8 +1351,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -1350,28 +1378,28 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M9" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M9" t="str">
+        <v>d1110111</v>
+      </c>
+      <c r="N9" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1110111</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="3"/>
         <v>D1111011</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1380,8 +1408,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
+      <c r="C10" s="3">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8">
         <v>7</v>
       </c>
       <c r="E10" s="3">
@@ -1405,28 +1435,28 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M10" t="str">
+        <v>d1111011</v>
+      </c>
+      <c r="N10" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111011</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="3"/>
         <v>D1111101</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>-10000</v>
       </c>
-      <c r="R10" s="9">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9">
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1435,8 +1465,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8">
         <v>7</v>
       </c>
       <c r="E11" s="3">
@@ -1460,16 +1492,16 @@
       <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M11" t="str">
+        <v>d1111101</v>
+      </c>
+      <c r="N11" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111101</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="3"/>
         <v>D1111110</v>
       </c>
       <c r="Q11" t="s">
@@ -1481,8 +1513,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4">
+      <c r="C12" s="3">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8">
         <v>7</v>
       </c>
       <c r="E12" s="3">
@@ -1506,28 +1540,28 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M12" t="str">
+        <v>d1111110</v>
+      </c>
+      <c r="N12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111110</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="3"/>
         <v>D0111111</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1536,8 +1570,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
         <v>7</v>
       </c>
       <c r="E13" s="3">
@@ -1561,28 +1597,28 @@
       <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M13" t="str">
+        <v>d0011111</v>
+      </c>
+      <c r="N13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d0011111</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="3"/>
         <v>D1001111</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <v>100</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <v>10</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1591,9 +1627,11 @@
         <v>17</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
-        <v>3</v>
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1616,16 +1654,16 @@
       <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M14" t="str">
+        <v>d1001111</v>
+      </c>
+      <c r="N14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1001111</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="3"/>
         <v>D1100111</v>
       </c>
     </row>
@@ -1634,9 +1672,11 @@
         <v>18</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4">
-        <v>2</v>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1659,35 +1699,37 @@
       <c r="K15" s="3">
         <v>1</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M15" t="str">
+        <v>d1100111</v>
+      </c>
+      <c r="N15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1100111</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="3"/>
         <v>D1110011</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4">
-        <v>2</v>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1710,35 +1752,37 @@
       <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M16" t="str">
+        <v>d1110011</v>
+      </c>
+      <c r="N16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1110011</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="3"/>
         <v>D1111001</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>10</v>
       </c>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4">
-        <v>2</v>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1761,16 +1805,16 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M17" t="str">
+        <v>d1111001</v>
+      </c>
+      <c r="N17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111001</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="3"/>
         <v>D1111100</v>
       </c>
     </row>
@@ -1779,9 +1823,11 @@
         <v>21</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4">
-        <v>1</v>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>7</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1804,35 +1850,37 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M18" t="str">
+        <v>d1111100</v>
+      </c>
+      <c r="N18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111100</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
         <v>D0111110</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4">
-        <v>1</v>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -1855,35 +1903,37 @@
       <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M19" t="str">
+        <v>d0001111</v>
+      </c>
+      <c r="N19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d0001111</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
         <v>D1000111</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>-1</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4">
-        <v>2</v>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1906,17 +1956,20 @@
       <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M20" t="str">
+        <v>d1000111</v>
+      </c>
+      <c r="N20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1000111</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="3"/>
         <v>D1100011</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1924,9 +1977,11 @@
         <v>24</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4">
-        <v>3</v>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>7</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1949,16 +2004,16 @@
       <c r="K21" s="3">
         <v>1</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M21" t="str">
+        <v>d1100011</v>
+      </c>
+      <c r="N21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1100011</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="3"/>
         <v>D1110001</v>
       </c>
     </row>
@@ -1967,9 +2022,11 @@
         <v>25</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4">
-        <v>3</v>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>7</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1992,16 +2049,16 @@
       <c r="K22" s="3">
         <v>1</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M22" t="str">
+        <v>d1110001</v>
+      </c>
+      <c r="N22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1110001</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="3"/>
         <v>D1111000</v>
       </c>
     </row>
@@ -2010,9 +2067,11 @@
         <v>26</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4">
-        <v>1</v>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -2035,16 +2094,16 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M23" t="str">
+        <v>d1111000</v>
+      </c>
+      <c r="N23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111000</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="3"/>
         <v>D0111100</v>
       </c>
     </row>
@@ -2053,41 +2112,88 @@
         <v>27</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="M24" s="14" t="str">
         <f t="shared" si="1"/>
+        <v>d1010101</v>
+      </c>
+      <c r="N24" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>D1101010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" ref="L25" si="3">SUM(E25:K25)</f>
         <v>4</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="2"/>
+      <c r="M25" s="14" t="str">
+        <f t="shared" ref="M25" si="4">_xlfn.CONCAT("d",E25,F25,G25,H25,I25,J25,K25)</f>
         <v>d1010101</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="3"/>
+      <c r="N25" s="14" t="str">
+        <f t="shared" ref="N25" si="5">_xlfn.CONCAT("D",K25,E25,F25,G25,H25,I25,J25)</f>
         <v>D1101010</v>
       </c>
     </row>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A1D624-DC18-4F25-875C-03E1C9F86DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B7AE9-5663-45B1-A161-D12FDC886E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1785" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="3450" windowWidth="26760" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>JAN</t>
     <phoneticPr fontId="1"/>
@@ -495,40 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ 減点方式ならマイナス値、加点方式ならプラス値、数字の大きさが全体での重さになる</t>
-    <rPh sb="2" eb="4">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カテン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発注数が7以下なら 連続しないようにしたい</t>
     <rPh sb="0" eb="3">
       <t>ハッチュウスウ</t>
@@ -557,6 +523,13 @@
     <t>集計</t>
     <rPh sb="0" eb="2">
       <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -673,7 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -967,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -984,10 +956,11 @@
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="10.25" customWidth="1"/>
     <col min="18" max="18" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.25" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" hidden="1" customHeight="1">
+    <row r="1" spans="1:20" ht="18" hidden="1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1025,10 +998,10 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
       </c>
       <c r="Q1" t="s">
         <v>47</v>
@@ -1040,11 +1013,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="17"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1070,26 +1043,50 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="13"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="E3" s="4">
+        <f>SUM(E5:E25)</f>
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:K3" si="0">SUM(F5:F25)</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM(E3:K3)</f>
+        <v>107</v>
+      </c>
       <c r="P3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1103,29 +1100,29 @@
         <v>28</v>
       </c>
       <c r="E4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L4" s="4">
         <f>SUM(E4:K4)</f>
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>50</v>
@@ -1140,13 +1137,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D5" s="8">
         <v>7</v>
@@ -1192,13 +1189,13 @@
       </c>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D6" s="8">
         <v>7</v>
@@ -1225,15 +1222,15 @@
         <v>1</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" ref="L6:L24" si="0">SUM(E6:K6)</f>
+        <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
         <v>6</v>
       </c>
       <c r="M6" s="14" t="str">
-        <f t="shared" ref="M6:M24" si="1">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
+        <f t="shared" ref="M6:M24" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
         <v>d0111111</v>
       </c>
       <c r="N6" s="14" t="str">
-        <f t="shared" ref="N6:N24" si="2">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
+        <f t="shared" ref="N6:N24" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
         <v>D1011111</v>
       </c>
       <c r="P6" s="9" t="s">
@@ -1244,13 +1241,13 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D7" s="8">
         <v>7</v>
@@ -1277,22 +1274,22 @@
         <v>1</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M7" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1011111</v>
       </c>
       <c r="N7" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1101111</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="8">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>33</v>
@@ -1301,13 +1298,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D8" s="8">
         <v>7</v>
@@ -1334,25 +1331,25 @@
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M8" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1101111</v>
       </c>
       <c r="N8" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1110111</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D9" s="8">
         <v>7</v>
@@ -1379,15 +1376,15 @@
         <v>1</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M9" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1110111</v>
       </c>
       <c r="N9" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1111011</v>
       </c>
       <c r="P9" s="9" t="s">
@@ -1402,14 +1399,17 @@
       <c r="S9" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D10" s="8">
         <v>7</v>
@@ -1436,37 +1436,38 @@
         <v>1</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M10" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1111011</v>
       </c>
       <c r="N10" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1111101</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="12">
-        <v>-10000</v>
+        <v>10000</v>
       </c>
       <c r="R10" s="8">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="S10" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>3000</v>
+      </c>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8">
         <v>7</v>
@@ -1493,28 +1494,25 @@
         <v>1</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M11" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1111101</v>
       </c>
       <c r="N11" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1111110</v>
       </c>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D12" s="8">
         <v>7</v>
@@ -1541,15 +1539,15 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="M12" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1111110</v>
       </c>
       <c r="N12" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D0111111</v>
       </c>
       <c r="P12" s="9" t="s">
@@ -1564,14 +1562,17 @@
       <c r="S12" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8">
         <v>7</v>
@@ -1598,15 +1599,15 @@
         <v>1</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M13" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d0011111</v>
       </c>
       <c r="N13" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1001111</v>
       </c>
       <c r="P13" s="11" t="s">
@@ -1621,14 +1622,15 @@
       <c r="S13" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8">
         <v>7</v>
@@ -1655,25 +1657,25 @@
         <v>1</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M14" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1001111</v>
       </c>
       <c r="N14" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1100111</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>
@@ -1700,15 +1702,15 @@
         <v>1</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M15" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1100111</v>
       </c>
       <c r="N15" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1110011</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -1719,14 +1721,17 @@
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8">
         <v>7</v>
@@ -1753,15 +1758,15 @@
         <v>1</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M16" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1110011</v>
       </c>
       <c r="N16" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1111001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -1772,8 +1777,9 @@
       </c>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1806,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M17" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1111001</v>
       </c>
       <c r="N17" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1111100</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1851,15 +1857,15 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M18" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1111100</v>
       </c>
       <c r="N18" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D0111110</v>
       </c>
       <c r="P18" s="9" t="s">
@@ -1870,8 +1876,11 @@
       </c>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1904,27 +1913,28 @@
         <v>1</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M19" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d0001111</v>
       </c>
       <c r="N19" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1000111</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="Q19" s="12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="13"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1957,22 +1967,22 @@
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M20" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1000111</v>
       </c>
       <c r="N20" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1100011</v>
       </c>
       <c r="Q20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2005,19 +2015,19 @@
         <v>1</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M21" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1100011</v>
       </c>
       <c r="N21" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1110001</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2050,19 +2060,19 @@
         <v>1</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M22" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1110001</v>
       </c>
       <c r="N22" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1111000</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2095,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M23" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1111000</v>
       </c>
       <c r="N23" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D0111100</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2140,21 +2150,21 @@
         <v>1</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M24" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>d1010101</v>
       </c>
       <c r="N24" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>D1101010</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
@@ -2185,15 +2195,15 @@
         <v>1</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" ref="L25" si="3">SUM(E25:K25)</f>
+        <f t="shared" ref="L25" si="4">SUM(E25:K25)</f>
         <v>4</v>
       </c>
       <c r="M25" s="14" t="str">
-        <f t="shared" ref="M25" si="4">_xlfn.CONCAT("d",E25,F25,G25,H25,I25,J25,K25)</f>
+        <f t="shared" ref="M25" si="5">_xlfn.CONCAT("d",E25,F25,G25,H25,I25,J25,K25)</f>
         <v>d1010101</v>
       </c>
       <c r="N25" s="14" t="str">
-        <f t="shared" ref="N25" si="5">_xlfn.CONCAT("D",K25,E25,F25,G25,H25,I25,J25)</f>
+        <f t="shared" ref="N25" si="6">_xlfn.CONCAT("D",K25,E25,F25,G25,H25,I25,J25)</f>
         <v>D1101010</v>
       </c>
     </row>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B7AE9-5663-45B1-A161-D12FDC886E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D574034F-16CC-4821-9C47-06F086103414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3450" windowWidth="26760" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30990" yWindow="1365" windowWidth="31650" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>JAN</t>
     <phoneticPr fontId="1"/>
@@ -380,89 +380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品の連続数</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重要度の評価④</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウヨウド</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過剰時の減点(固定値)</t>
-    <rPh sb="0" eb="2">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2個目以降の優先度減点(固定値)</t>
-    <rPh sb="1" eb="3">
-      <t>コメ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>コテイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>過剰時の優先度減点(固定値)</t>
-    <rPh sb="0" eb="2">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ユウセンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>何世代計算するか？</t>
     <rPh sb="0" eb="1">
       <t>ナン</t>
@@ -476,47 +393,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不足時の減点(固定値)</t>
-    <rPh sb="0" eb="2">
-      <t>フソク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゲンテン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発注数が7以下なら 連続しないようにしたい</t>
-    <rPh sb="0" eb="3">
-      <t>ハッチュウスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>orderptn1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>orderptn2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>012345678921</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -530,6 +411,89 @@
     <t>評価</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各評価間の重要度を示す。プラス値なら数値が高くなるように動き、マイナス値なら0に近づくように動く。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュウヨウド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不足時の減点</t>
+    <rPh sb="0" eb="2">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過剰時の減点</t>
+    <rPh sb="0" eb="2">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過剰時の減点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過少時の減点</t>
+    <rPh sb="0" eb="2">
+      <t>カショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -650,15 +614,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -939,24 +895,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
-    <col min="18" max="18" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.25" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" customWidth="1"/>
+    <col min="18" max="18" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.19921875" customWidth="1"/>
     <col min="20" max="20" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -998,10 +954,10 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
         <v>47</v>
@@ -1045,42 +1001,42 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="13"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <f>SUM(E5:E25)</f>
-        <v>18</v>
+        <f t="shared" ref="E3:K3" si="0">SUM(E5:E24)</f>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:K3" si="0">SUM(F5:F25)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4">
         <f>SUM(E3:K3)</f>
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>55</v>
@@ -1128,7 +1084,7 @@
         <v>50</v>
       </c>
       <c r="Q4" s="8">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>51</v>
@@ -1143,7 +1099,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="8">
         <v>7</v>
@@ -1185,7 +1141,7 @@
         <v>53</v>
       </c>
       <c r="Q5" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="9"/>
     </row>
@@ -1195,13 +1151,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="8">
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1223,21 +1179,21 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6" s="14" t="str">
         <f t="shared" ref="M6:M24" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
-        <v>d0111111</v>
+        <v>d1111111</v>
       </c>
       <c r="N6" s="14" t="str">
         <f t="shared" ref="N6:N24" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
-        <v>D1011111</v>
+        <v>D1111111</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Q6" s="10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R6" s="9"/>
     </row>
@@ -1247,7 +1203,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="8">
         <v>7</v>
@@ -1256,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1275,15 +1231,15 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1011111</v>
+        <v>d1111111</v>
       </c>
       <c r="N7" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1101111</v>
+        <v>D1111111</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>34</v>
@@ -1295,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1304,7 +1260,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="8">
         <v>7</v>
@@ -1316,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1332,15 +1288,15 @@
       </c>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1101111</v>
+        <v>d1111111</v>
       </c>
       <c r="N8" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1110111</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1349,7 +1305,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <v>7</v>
@@ -1364,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1377,15 +1333,15 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1110111</v>
+        <v>d1111111</v>
       </c>
       <c r="N9" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1111011</v>
+        <v>D1111111</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>56</v>
@@ -1397,10 +1353,10 @@
         <v>68</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1409,7 +1365,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
         <v>7</v>
@@ -1427,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -1437,27 +1393,27 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111011</v>
+        <v>d1111111</v>
       </c>
       <c r="N10" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1111101</v>
+        <v>D1111111</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="12">
-        <v>10000</v>
+        <v>-10000</v>
       </c>
       <c r="R10" s="8">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="S10" s="8">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="T10" s="13"/>
     </row>
@@ -1467,7 +1423,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
         <v>7</v>
@@ -1488,22 +1444,25 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111101</v>
+        <v>d1111111</v>
       </c>
       <c r="N11" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1111110</v>
+        <v>D1111111</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1512,7 +1471,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
         <v>7</v>
@@ -1536,19 +1495,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111110</v>
+        <v>d1111111</v>
       </c>
       <c r="N12" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D0111111</v>
+        <v>D1111111</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>57</v>
@@ -1557,13 +1516,13 @@
         <v>32</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="S12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1572,16 +1531,16 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <v>7</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1600,27 +1559,27 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d0011111</v>
+        <v>d1111111</v>
       </c>
       <c r="N13" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1001111</v>
+        <v>D1111111</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="Q13" s="12">
+        <v>-100</v>
+      </c>
+      <c r="R13" s="8">
         <v>100</v>
       </c>
-      <c r="R13" s="8">
-        <v>10</v>
-      </c>
       <c r="S13" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T13" s="13"/>
     </row>
@@ -1630,7 +1589,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8">
         <v>7</v>
@@ -1639,10 +1598,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1658,15 +1617,15 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1001111</v>
+        <v>d1111111</v>
       </c>
       <c r="N14" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1100111</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1675,7 +1634,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>
@@ -1687,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -1703,15 +1662,15 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1100111</v>
+        <v>d1111111</v>
       </c>
       <c r="N15" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1110011</v>
+        <v>D1111111</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>58</v>
@@ -1722,7 +1681,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1731,7 +1690,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8">
         <v>7</v>
@@ -1746,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
@@ -1759,21 +1718,21 @@
       </c>
       <c r="L16" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1110011</v>
+        <v>d1111111</v>
       </c>
       <c r="N16" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1111001</v>
+        <v>D1111111</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="Q16" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -1803,25 +1762,25 @@
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111001</v>
+        <v>d1111111</v>
       </c>
       <c r="N17" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1111100</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1851,34 +1810,28 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111100</v>
+        <v>d1111111</v>
       </c>
       <c r="N18" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D0111110</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>32</v>
-      </c>
+        <v>D1111111</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
@@ -1892,13 +1845,13 @@
         <v>7</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1914,22 +1867,18 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d0001111</v>
+        <v>d1111111</v>
       </c>
       <c r="N19" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1000111</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>1</v>
-      </c>
+        <v>D1111111</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="13"/>
@@ -1949,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -1968,18 +1917,15 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1000111</v>
+        <v>d1111111</v>
       </c>
       <c r="N20" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1100011</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>69</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2000,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2016,15 +1962,15 @@
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1100011</v>
+        <v>d1111111</v>
       </c>
       <c r="N21" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1110001</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2048,28 +1994,28 @@
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1110001</v>
+        <v>d1111111</v>
       </c>
       <c r="N22" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1111000</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2096,25 +2042,25 @@
         <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1111000</v>
+        <v>d1111111</v>
       </c>
       <c r="N23" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D0111100</v>
+        <v>D1111111</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2132,88 +2078,38 @@
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>d1010101</v>
+        <v>d1111111</v>
       </c>
       <c r="N24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>D1101010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4">
-        <f t="shared" ref="L25" si="4">SUM(E25:K25)</f>
-        <v>4</v>
-      </c>
-      <c r="M25" s="14" t="str">
-        <f t="shared" ref="M25" si="5">_xlfn.CONCAT("d",E25,F25,G25,H25,I25,J25,K25)</f>
-        <v>d1010101</v>
-      </c>
-      <c r="N25" s="14" t="str">
-        <f t="shared" ref="N25" si="6">_xlfn.CONCAT("D",K25,E25,F25,G25,H25,I25,J25)</f>
-        <v>D1101010</v>
+        <v>D1111111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H4:K4">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(COUNTIF($C4,"*水*"), TRUE, FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D574034F-16CC-4821-9C47-06F086103414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C93F5A-5C93-4B7D-B5FE-123D765B358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="1365" windowWidth="31650" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31230" yWindow="2895" windowWidth="31650" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>日</t>
   </si>
   <si>
-    <t>012345678901</t>
-  </si>
-  <si>
     <t>012345678902</t>
   </si>
   <si>
@@ -495,6 +492,10 @@
     <rPh sb="4" eb="6">
       <t>ゲンテン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012345678901</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -897,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -918,55 +919,55 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" hidden="1" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
       <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
         <v>59</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -996,12 +997,12 @@
         <v>7</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="13"/>
@@ -1039,7 +1040,7 @@
         <v>140</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1047,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8">
         <v>15</v>
@@ -1081,21 +1082,21 @@
         <v>105</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="8">
         <v>500</v>
       </c>
       <c r="R4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
         <v>51</v>
-      </c>
-      <c r="S4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3">
@@ -1138,7 +1139,7 @@
         <v>D1111111</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="10">
         <v>0.5</v>
@@ -1147,7 +1148,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3">
@@ -1178,19 +1179,19 @@
         <v>1</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
+        <f t="shared" ref="L6:L25" si="1">SUM(E6:K6)</f>
         <v>7</v>
       </c>
       <c r="M6" s="14" t="str">
-        <f t="shared" ref="M6:M24" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
+        <f t="shared" ref="M6:M25" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
         <v>d1111111</v>
       </c>
       <c r="N6" s="14" t="str">
-        <f t="shared" ref="N6:N24" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
+        <f t="shared" ref="N6:N25" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
         <v>D1111111</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="10">
         <v>0.2</v>
@@ -1199,7 +1200,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
@@ -1242,21 +1243,21 @@
         <v>D1111111</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="8">
         <v>500</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3">
@@ -1301,11 +1302,11 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D9" s="8">
         <v>7</v>
@@ -1344,28 +1345,28 @@
         <v>D1111111</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="T9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D10" s="8">
         <v>7</v>
@@ -1404,7 +1405,7 @@
         <v>D1111111</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="12">
         <v>-10000</v>
@@ -1419,11 +1420,11 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D11" s="8">
         <v>7</v>
@@ -1462,16 +1463,16 @@
         <v>D1111111</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D12" s="8">
         <v>7</v>
@@ -1510,28 +1511,28 @@
         <v>D1111111</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D13" s="8">
         <v>7</v>
@@ -1570,7 +1571,7 @@
         <v>D1111111</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="12">
         <v>-100</v>
@@ -1585,11 +1586,11 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D14" s="8">
         <v>7</v>
@@ -1630,7 +1631,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
@@ -1673,20 +1674,20 @@
         <v>D1111111</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1729,7 +1730,7 @@
         <v>D1111111</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="12">
         <v>1</v>
@@ -1740,7 +1741,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3">
@@ -1785,7 +1786,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
@@ -1835,7 +1836,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3">
@@ -1885,7 +1886,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3">
@@ -1930,7 +1931,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3">
@@ -1975,7 +1976,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3">
@@ -2020,7 +2021,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
@@ -2065,7 +2066,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3">

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\SRC - etc\nurse-scheduling-ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C93F5A-5C93-4B7D-B5FE-123D765B358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E35A3FA-DEFB-4220-9B87-0534AFEA68D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="2895" windowWidth="31650" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32085" yWindow="3180" windowWidth="23400" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>JAN</t>
     <phoneticPr fontId="1"/>
@@ -496,6 +496,13 @@
   </si>
   <si>
     <t>012345678901</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,8 +534,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -583,11 +614,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -611,8 +654,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -898,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -971,7 +1018,9 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="7"/>
+      <c r="A2" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" s="7"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1179,15 +1228,15 @@
         <v>1</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" ref="L6:L25" si="1">SUM(E6:K6)</f>
+        <f t="shared" ref="L6:L24" si="1">SUM(E6:K6)</f>
         <v>7</v>
       </c>
       <c r="M6" s="14" t="str">
-        <f t="shared" ref="M6:M25" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
+        <f t="shared" ref="M6:M24" si="2">_xlfn.CONCAT("d",E6,F6,G6,H6,I6,J6,K6)</f>
         <v>d1111111</v>
       </c>
       <c r="N6" s="14" t="str">
-        <f t="shared" ref="N6:N25" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
+        <f t="shared" ref="N6:N24" si="3">_xlfn.CONCAT("D",K6,E6,F6,G6,H6,I6,J6)</f>
         <v>D1111111</v>
       </c>
       <c r="P6" s="9" t="s">
@@ -2111,6 +2160,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7D7B7487-A4AB-48E5-8BE7-75075005913E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>